--- a/FishLandings/household groups/statistics/Protein (g)_output.xlsx
+++ b/FishLandings/household groups/statistics/Protein (g)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>16088714.006621</v>
+        <v>21767351.351937</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>44.245455</v>
+        <v>71.15608</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>4388189.064076</v>
+        <v>7952933.847096</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6.033963</v>
+        <v>12.998816</v>
       </c>
       <c r="E3">
-        <v>0.002805</v>
+        <v>4e-06</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>81088175.76444501</v>
+        <v>101562096.096552</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-173.405502</v>
+        <v>-182.121272</v>
       </c>
       <c r="H5">
-        <v>-436.762856</v>
+        <v>-382.651956</v>
       </c>
       <c r="I5">
-        <v>89.951851</v>
+        <v>18.409413</v>
       </c>
       <c r="J5">
-        <v>0.26812</v>
+        <v>0.083815</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>138.727043</v>
+        <v>159.274143</v>
       </c>
       <c r="H6">
-        <v>-144.853064</v>
+        <v>-51.351063</v>
       </c>
       <c r="I6">
-        <v>422.307151</v>
+        <v>369.899349</v>
       </c>
       <c r="J6">
-        <v>0.481862</v>
+        <v>0.17778</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>312.132546</v>
+        <v>341.395415</v>
       </c>
       <c r="H7">
-        <v>97.74303500000001</v>
+        <v>183.019328</v>
       </c>
       <c r="I7">
-        <v>526.522056</v>
+        <v>499.771502</v>
       </c>
       <c r="J7">
-        <v>0.002033</v>
+        <v>2e-06</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Protein (g)_output.xlsx
+++ b/FishLandings/household groups/statistics/Protein (g)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>21767351.351937</v>
+        <v>16088714.006621</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>71.15608</v>
+        <v>44.245455</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>7952933.847096</v>
+        <v>4388189.064076</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12.998816</v>
+        <v>6.033963</v>
       </c>
       <c r="E3">
-        <v>4e-06</v>
+        <v>0.002805</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>101562096.096552</v>
+        <v>81088175.76444501</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-182.121272</v>
+        <v>-173.405502</v>
       </c>
       <c r="H5">
-        <v>-382.651956</v>
+        <v>-436.762856</v>
       </c>
       <c r="I5">
-        <v>18.409413</v>
+        <v>89.951851</v>
       </c>
       <c r="J5">
-        <v>0.083815</v>
+        <v>0.26812</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>159.274143</v>
+        <v>138.727043</v>
       </c>
       <c r="H6">
-        <v>-51.351063</v>
+        <v>-144.853064</v>
       </c>
       <c r="I6">
-        <v>369.899349</v>
+        <v>422.307151</v>
       </c>
       <c r="J6">
-        <v>0.17778</v>
+        <v>0.481862</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>341.395415</v>
+        <v>312.132546</v>
       </c>
       <c r="H7">
-        <v>183.019328</v>
+        <v>97.74303500000001</v>
       </c>
       <c r="I7">
-        <v>499.771502</v>
+        <v>526.522056</v>
       </c>
       <c r="J7">
-        <v>2e-06</v>
+        <v>0.002033</v>
       </c>
     </row>
   </sheetData>
